--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1547,7 +1547,7 @@
         <v>130881372</v>
       </c>
       <c r="B10" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>130882200</v>
       </c>
       <c r="B11" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>130881368</v>
       </c>
       <c r="B12" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>130882201</v>
       </c>
       <c r="B13" t="n">
-        <v>93091</v>
+        <v>93095</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>130881366</v>
       </c>
       <c r="B14" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1909,42 +1909,47 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130882201</v>
+        <v>130881366</v>
       </c>
       <c r="B13" t="n">
-        <v>93095</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1953,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656955</v>
+        <v>656781</v>
       </c>
       <c r="R13" t="n">
-        <v>6559350</v>
+        <v>6559672</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1988,7 +1993,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1998,7 +2003,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2018,54 +2023,49 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Stuart Fell, Liam Martin</t>
+          <t>Stuart Fell</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130881366</v>
+        <v>130882201</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>93095</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656781</v>
+        <v>656955</v>
       </c>
       <c r="R14" t="n">
-        <v>6559672</v>
+        <v>6559350</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stuart Fell</t>
+          <t>Stuart Fell, Liam Martin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1909,47 +1909,42 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130881366</v>
+        <v>130882201</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>93095</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1958,10 +1953,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656781</v>
+        <v>656955</v>
       </c>
       <c r="R13" t="n">
-        <v>6559672</v>
+        <v>6559350</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1993,7 +1988,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2003,7 +1998,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2023,49 +2018,54 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Stuart Fell</t>
+          <t>Stuart Fell, Liam Martin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130882201</v>
+        <v>130881366</v>
       </c>
       <c r="B14" t="n">
-        <v>93095</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656955</v>
+        <v>656781</v>
       </c>
       <c r="R14" t="n">
-        <v>6559350</v>
+        <v>6559672</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stuart Fell, Liam Martin</t>
+          <t>Stuart Fell</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1670,7 +1670,7 @@
         <v>130882200</v>
       </c>
       <c r="B11" t="n">
-        <v>93133</v>
+        <v>93134</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1909,42 +1909,47 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130882201</v>
+        <v>130881366</v>
       </c>
       <c r="B13" t="n">
-        <v>93095</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1953,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656955</v>
+        <v>656781</v>
       </c>
       <c r="R13" t="n">
-        <v>6559350</v>
+        <v>6559672</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1988,7 +1993,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1998,7 +2003,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2018,54 +2023,49 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Stuart Fell, Liam Martin</t>
+          <t>Stuart Fell</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130881366</v>
+        <v>130882201</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>93096</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656781</v>
+        <v>656955</v>
       </c>
       <c r="R14" t="n">
-        <v>6559672</v>
+        <v>6559350</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stuart Fell</t>
+          <t>Stuart Fell, Liam Martin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1909,47 +1909,42 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130881366</v>
+        <v>130882201</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>93096</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1958,10 +1953,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656781</v>
+        <v>656955</v>
       </c>
       <c r="R13" t="n">
-        <v>6559672</v>
+        <v>6559350</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1993,7 +1988,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2003,7 +1998,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2023,49 +2018,54 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Stuart Fell</t>
+          <t>Stuart Fell, Liam Martin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130882201</v>
+        <v>130881366</v>
       </c>
       <c r="B14" t="n">
-        <v>93096</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656955</v>
+        <v>656781</v>
       </c>
       <c r="R14" t="n">
-        <v>6559350</v>
+        <v>6559672</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stuart Fell, Liam Martin</t>
+          <t>Stuart Fell</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1909,42 +1909,47 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130882201</v>
+        <v>130881366</v>
       </c>
       <c r="B13" t="n">
-        <v>93096</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1953,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656955</v>
+        <v>656781</v>
       </c>
       <c r="R13" t="n">
-        <v>6559350</v>
+        <v>6559672</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1988,7 +1993,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1998,7 +2003,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2018,54 +2023,49 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Stuart Fell, Liam Martin</t>
+          <t>Stuart Fell</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130881366</v>
+        <v>130882201</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>93096</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656781</v>
+        <v>656955</v>
       </c>
       <c r="R14" t="n">
-        <v>6559672</v>
+        <v>6559350</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stuart Fell</t>
+          <t>Stuart Fell, Liam Martin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>

--- a/artfynd/A 695-2023 artfynd.xlsx
+++ b/artfynd/A 695-2023 artfynd.xlsx
@@ -1670,7 +1670,7 @@
         <v>130882200</v>
       </c>
       <c r="B11" t="n">
-        <v>93134</v>
+        <v>93135</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>130882201</v>
       </c>
       <c r="B14" t="n">
-        <v>93096</v>
+        <v>93097</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
